--- a/Biden/2022-11-07/user_tweets/dataG.xlsx
+++ b/Biden/2022-11-07/user_tweets/dataG.xlsx
@@ -710,7 +710,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,13 +720,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -784,7 +778,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1101,15 +1095,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="29.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1143,7 @@
         <v>154597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>11435</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1189,7 +1183,7 @@
         <v>6160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.75">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1203,7 @@
         <v>58869</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.75">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1229,7 +1223,7 @@
         <v>72240</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.75">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>84999</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1269,7 +1263,7 @@
         <v>24411</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1283,7 @@
         <v>12951</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1309,7 +1303,7 @@
         <v>20051</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="62.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1329,7 +1323,7 @@
         <v>26907</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.75">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>11822</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1389,7 +1383,7 @@
         <v>30680</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.75">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.75">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1429,7 +1423,7 @@
         <v>135480</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1449,7 +1443,7 @@
         <v>13765</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1469,7 +1463,7 @@
         <v>158306</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="62.25">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -1489,7 +1483,7 @@
         <v>46155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="39.75">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1509,7 +1503,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="39.75">
       <c r="A21" s="3" t="s">
         <v>64</v>
       </c>
@@ -1529,7 +1523,7 @@
         <v>23117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>7234</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="39.75">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>71174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>6253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>14719</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="39.75">
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
@@ -1629,7 +1623,7 @@
         <v>18363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="39.75">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -1649,7 +1643,7 @@
         <v>115117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -1669,7 +1663,7 @@
         <v>10715</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>26579</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>7794</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -1729,7 +1723,7 @@
         <v>21986</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="39.75">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
@@ -1749,7 +1743,7 @@
         <v>20412</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
@@ -1769,7 +1763,7 @@
         <v>9382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>62942</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>18852</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="62.25">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -1829,7 +1823,7 @@
         <v>13347</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="39.75">
       <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
